--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2897076.873913785</v>
+        <v>3001256.508364855</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>310.4203810663442</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.76470074482764</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>98.17502158542611</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>1.150146252006677</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>199.6929530069991</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>119.4052401486918</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>78.92424093294977</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1110,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>16.97759865613139</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>96.97390940101887</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.194812067116659</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>63.72703424640789</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>47.99812034344351</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>41.74133133758716</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>198.0998442038081</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>12.76515480631733</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1813,10 +1815,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>46.35517081455656</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>60.64713141731143</v>
       </c>
       <c r="T19" t="n">
-        <v>104.4262124629293</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.02356321678209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>53.07327741456266</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>125.8152577453153</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576164</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>14.53306611597384</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>106.997776813539</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.73433514020032</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="39">
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>34.03048557918999</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179411</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>69.82863813027228</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.36569740310337</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4641157700689</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4361,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228006</v>
@@ -4413,7 +4415,7 @@
         <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>363.5187033424295</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C4" t="n">
-        <v>363.5187033424295</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300937</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300937</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1828.127859618364</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1606.36124418789</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1317.258377313534</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V4" t="n">
-        <v>1062.573889107647</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W4" t="n">
-        <v>773.1567190706866</v>
+        <v>1326.280305378586</v>
       </c>
       <c r="X4" t="n">
-        <v>545.1671681726692</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="Y4" t="n">
-        <v>545.1671681726692</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1792.126722677732</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4565,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3094.703799450719</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2763.640912107148</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W5" t="n">
-        <v>2763.640912107148</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>2763.640912107148</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>1792.126722677732</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.6939999491682</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X7" t="n">
-        <v>828.3424647794079</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="Y7" t="n">
-        <v>828.3424647794079</v>
+        <v>1003.632299304354</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993392</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723278</v>
+        <v>2768.144153427816</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462198</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>912.4415581410489</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C10" t="n">
-        <v>743.505375213142</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D10" t="n">
-        <v>593.3887358008062</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E10" t="n">
-        <v>445.4756422184131</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>298.5856947205027</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>130.8828580952217</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1567.214525573684</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1567.214525573684</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1277.797355536723</v>
       </c>
       <c r="X10" t="n">
-        <v>1094.090022971289</v>
+        <v>1049.807804638706</v>
       </c>
       <c r="Y10" t="n">
-        <v>1094.090022971289</v>
+        <v>829.0152254951761</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5361,19 +5363,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>961.4446166151475</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>792.5084336872407</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
         <v>779.6143379232838</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2333.093974969474</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2113.492509992416</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.885660588917</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>1143.093081445387</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5504,13 +5506,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,10 +5524,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5598,10 +5600,10 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
         <v>1344.266747951538</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2385.703354875905</v>
       </c>
       <c r="T19" t="n">
-        <v>2341.482060890433</v>
+        <v>2166.101889898846</v>
       </c>
       <c r="U19" t="n">
-        <v>2052.406834234631</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V19" t="n">
-        <v>1797.722346028744</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W19" t="n">
-        <v>1508.305175991783</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="20">
@@ -5741,58 +5743,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2939.372134388645</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C22" t="n">
-        <v>2939.372134388645</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>2939.372134388645</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>2791.459040806251</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>2644.569093308341</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>2477.372994023221</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
         <v>2419.773435218391</v>
@@ -5932,28 +5934,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>4637.223781272773</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>4454.368946927677</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>4234.767481950618</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>3945.692255294816</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>3691.00776708893</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>3401.590597051969</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>3173.601046153952</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.192580311172</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2319.876964645598</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="26">
@@ -6221,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>2022.116874200839</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1031.26032167505</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>862.324138747143</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>712.2074993348073</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>564.2944057524141</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>417.4044582545038</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>250.2083589693837</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>108.4965278115818</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1212.90878650529</v>
       </c>
     </row>
     <row r="32">
@@ -6689,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,10 +6718,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>2517.442480416598</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6932,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>3524.185693912098</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="38">
@@ -7169,28 +7171,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
@@ -7205,16 +7207,16 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>945.402603663004</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>776.4664207350971</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>626.3497813227614</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>478.4366877403683</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>331.5467402424579</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>164.3506409573378</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>164.3506409573378</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7628,25 +7630,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>738.7889117913853</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2395.078540748843</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2395.078540748843</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2106.003314093041</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>125.5054897610407</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>20.4848091482867</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>135.850318211895</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>134.671115187088</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>120.3791545843332</v>
       </c>
       <c r="T19" t="n">
-        <v>112.979237864359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.27114962944179</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>13.30196929555903</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>55.21102825632927</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>6.257951202384504</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>66.73277020259168</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>142.9753202488369</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>145.8014946027473</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>11.43719818829325</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>129.6605885985412</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>84.24553961896822</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.609736506</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551168</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231449</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
         <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26445,19 +26447,19 @@
         <v>11167.03225179352</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="O4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="P4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11167.03225179352</v>
       </c>
     </row>
     <row r="5">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829147.2489274896</v>
+        <v>-829147.2489274899</v>
       </c>
       <c r="C6" t="n">
         <v>499597.4968001028</v>
       </c>
       <c r="D6" t="n">
-        <v>499597.496800103</v>
+        <v>499597.4968001029</v>
       </c>
       <c r="E6" t="n">
-        <v>248372.5858534496</v>
+        <v>248372.5858534497</v>
       </c>
       <c r="F6" t="n">
         <v>573785.0476608049</v>
       </c>
       <c r="G6" t="n">
-        <v>573785.0476608052</v>
+        <v>573785.0476608054</v>
       </c>
       <c r="H6" t="n">
-        <v>573785.0476608052</v>
+        <v>573785.0476608049</v>
       </c>
       <c r="I6" t="n">
-        <v>573785.0476608052</v>
+        <v>573785.0476608053</v>
       </c>
       <c r="J6" t="n">
-        <v>356253.8452635279</v>
+        <v>356253.8452635273</v>
       </c>
       <c r="K6" t="n">
-        <v>573785.0476608051</v>
+        <v>573785.0476608049</v>
       </c>
       <c r="L6" t="n">
         <v>573785.0476608048</v>
@@ -26558,10 +26560,10 @@
         <v>573785.0476608051</v>
       </c>
       <c r="O6" t="n">
-        <v>573785.0476608051</v>
+        <v>573785.0476608049</v>
       </c>
       <c r="P6" t="n">
-        <v>573785.0476608046</v>
+        <v>573785.0476608047</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.31346059713638</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.473237911226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>91.59400374601582</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>224.5595091370305</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>165.5799387640085</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>131.5899318102101</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>100.9077392489875</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.7320567329058</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>252.2670593163941</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>385.0431265889369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>81.02798066791289</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>238.2137178621694</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30289,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="39">
@@ -30475,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,25 +31843,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32081,22 +32083,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N15" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32254,7 +32256,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32318,13 +32320,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>282.8216163968503</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32549,31 +32551,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>514.695376254093</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,10 +32706,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32786,31 +32788,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>309.7666854143572</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>639.8517673857158</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>169.9530009943068</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,25 +33976,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34211,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L42" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34374,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34448,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35668,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N15" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35902,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35966,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>140.6875824748321</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>372.0991318096486</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>171.212305634483</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>508.5100553023825</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>35.9785935799765</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37859,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L42" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38096,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3001256.508364855</v>
+        <v>2997243.898350861</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>310.4203810663442</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>63.25786276724216</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734071385</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>71.67037196991615</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>1.150146252006677</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>199.6929530069991</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>38.18739105193987</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>78.92424093294977</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>71.67037196991615</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>16.22539291913726</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>96.97390940101887</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>47.99812034344351</v>
+        <v>238.9171930685451</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.0998442038081</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>43.3482415786093</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>46.35517081455656</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>60.64713141731143</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>53.07327741456266</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.8326660635311</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>125.8152577453153</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2608,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>64.3699333992445</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2845,7 +2845,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>13.7258286485377</v>
       </c>
       <c r="I31" t="n">
-        <v>14.53306611597384</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>103.1686991936197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.73433514020032</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>71.5632757833971</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.03048557918999</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>90.83656612960216</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>38.61213096654735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>141.4641157700689</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1681.836054204825</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1681.836054204825</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176916</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X2" t="n">
-        <v>2304.808759915837</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="Y2" t="n">
-        <v>1914.669427940025</v>
+        <v>1681.836054204825</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>846.0716871064755</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080134</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486466</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962569</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415547</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V4" t="n">
-        <v>1615.697475415547</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W4" t="n">
-        <v>1326.280305378586</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X4" t="n">
-        <v>1325.11854148767</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>1104.32596234414</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1792.126722677732</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3287.032699334482</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3033.502222608318</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2702.439335264748</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2349.670679994633</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.266054653544</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y5" t="n">
-        <v>1792.126722677732</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1513.842048484845</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.424878447885</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>1224.424878447885</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>1003.632299304354</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1177.259159988174</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>791.4709073899301</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>380.4850026003225</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267229</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2768.144153427816</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.678395166736</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>647.3667606649364</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>478.4305777370295</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415546</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1567.214525573684</v>
+        <v>1685.964050039457</v>
       </c>
       <c r="V10" t="n">
-        <v>1567.214525573684</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W10" t="n">
-        <v>1277.797355536723</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X10" t="n">
-        <v>1049.807804638706</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y10" t="n">
-        <v>829.0152254951761</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5062,16 +5062,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5348780504994</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>944.1833428807391</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,16 +5275,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>304.7988649377478</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>137.6027656526277</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2333.093974969474</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2113.492509992416</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1824.417283336614</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130727</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5506,13 +5506,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,16 +5521,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>533.5582272005026</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>383.4415877881669</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2385.703354875905</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2166.101889898846</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,58 +5743,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192684</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4637.223781272773</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4454.368946927677</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4234.767481950618</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3945.692255294816</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3691.00776708893</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3401.590597051969</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3173.601046153952</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3173.601046153952</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.6680198981028</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578602</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2319.876964645598</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2100.27549966854</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1811.200273012738</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1556.515784806851</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1267.09861476989</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1039.109063871873</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>818.3164847283425</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,64 +6214,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6457,40 +6457,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1031.26032167505</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C31" t="n">
-        <v>862.324138747143</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D31" t="n">
-        <v>712.2074993348073</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E31" t="n">
-        <v>564.2944057524141</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="F31" t="n">
-        <v>417.4044582545038</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="G31" t="n">
-        <v>250.2083589693837</v>
+        <v>107.6811364303332</v>
       </c>
       <c r="H31" t="n">
-        <v>108.4965278115818</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6660,13 +6660,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>1212.90878650529</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>198.0274703142544</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7028,16 +7028,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3607.75572940725</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X37" t="n">
-        <v>3524.185693912098</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2105.308438285949</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1816.233211630147</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.240688199802</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.823518162841</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.833967264824</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.041388121294</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7426,37 +7426,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.6442739835331</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1068.436853127063</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>847.6442739835331</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.79556933158176e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>2.345373895096259e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.4848091482867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>134.671115187088</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>120.3791545843332</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>13.30196929555903</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>55.21102825632927</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>84.24553961896785</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>126.5688841976862</v>
       </c>
       <c r="I31" t="n">
-        <v>66.73277020259168</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>142.9753202488369</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>147.0213775686977</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.8014946027473</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>126.5688841976861</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>84.24553961896822</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365052</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="O2" t="n">
-        <v>686074.6097365055</v>
-      </c>
       <c r="P2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.841779966431205e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073553</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551168</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314501</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90354.06702314498</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314483</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90354.0670231448</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26438,25 +26438,25 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
+        <v>11167.03225179346</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11167.03225179343</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11167.03225179346</v>
+      </c>
+      <c r="L4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179352</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829147.2489274899</v>
+        <v>-829147.2489274893</v>
       </c>
       <c r="C6" t="n">
-        <v>499597.4968001028</v>
+        <v>499597.4968001025</v>
       </c>
       <c r="D6" t="n">
-        <v>499597.4968001029</v>
+        <v>499597.4968001022</v>
       </c>
       <c r="E6" t="n">
-        <v>248372.5858534497</v>
+        <v>248025.2065990927</v>
       </c>
       <c r="F6" t="n">
-        <v>573785.0476608049</v>
+        <v>573437.6684064477</v>
       </c>
       <c r="G6" t="n">
-        <v>573785.0476608054</v>
+        <v>573437.6684064479</v>
       </c>
       <c r="H6" t="n">
-        <v>573785.0476608049</v>
+        <v>573437.6684064476</v>
       </c>
       <c r="I6" t="n">
-        <v>573785.0476608053</v>
+        <v>573437.6684064479</v>
       </c>
       <c r="J6" t="n">
-        <v>356253.8452635273</v>
+        <v>355906.4660091706</v>
       </c>
       <c r="K6" t="n">
-        <v>573785.0476608049</v>
+        <v>573437.6684064481</v>
       </c>
       <c r="L6" t="n">
-        <v>573785.0476608048</v>
+        <v>573437.6684064481</v>
       </c>
       <c r="M6" t="n">
-        <v>488730.019725293</v>
+        <v>488382.6404709363</v>
       </c>
       <c r="N6" t="n">
-        <v>573785.0476608051</v>
+        <v>573437.6684064482</v>
       </c>
       <c r="O6" t="n">
-        <v>573785.0476608049</v>
+        <v>573437.6684064481</v>
       </c>
       <c r="P6" t="n">
-        <v>573785.0476608047</v>
+        <v>573437.6684064481</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022922</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022922</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,10 +26980,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.31346059713638</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>291.4251788534408</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356967</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>224.5595091370305</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>165.5799387640085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>165.7305790876803</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.9077392489875</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356967</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>394.6963327343162</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>252.2670593163941</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>238.2137178621694</v>
+        <v>47.29464513706782</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,25 +32083,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32709,34 +32709,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,22 +33031,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>309.7666854143572</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>606.5820696732821</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,31 +33496,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>171.212305634483</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>463.9858252288377</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2997243.898350861</v>
+        <v>2999004.428653648</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>63.25786276724216</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>94.8127598026135</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734071385</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>71.67037196991615</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>248.6820345466074</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>38.18739105193987</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>318.4070179429954</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>82.70057996958639</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>71.67037196991615</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>300.340149185704</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>16.22539291913726</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>238.9171930685451</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,13 +1666,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>43.3482415786093</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>101.6969570046971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>135.3135037226517</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695798</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881261</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>24.8326660635311</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>245.6198119699298</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>64.3699333992445</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>274.1357181000192</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>13.7258286485377</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>118.6708469029954</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.797182079703</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.5632757833971</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>90.83656612960216</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>132.6315337216692</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266593</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204825</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1681.836054204825</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609169</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450751</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180637</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180637</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204825</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
         <v>1972.980349513958</v>
@@ -4424,7 +4424,7 @@
         <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486466</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
         <v>3167.964263962569</v>
@@ -4433,28 +4433,28 @@
         <v>3325.605821609169</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>2246.382089998687</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>2077.44590707078</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>1927.329267658444</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300937</v>
+        <v>1779.416174076051</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218338</v>
+        <v>1632.526226578141</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218338</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279951</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>2030.493003797168</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>3247.995525456654</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="U4" t="n">
-        <v>1854.900232967364</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>2984.581390077195</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>2695.164220040234</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>2467.174669142217</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>2246.382089998687</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3287.032699334482</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3033.502222608318</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2702.439335264748</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2349.670679994633</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.204921733553</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4637,37 +4637,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218338</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1600.215744761477</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C8" t="n">
-        <v>1535.524858594925</v>
+        <v>1535.524858594926</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.259159988174</v>
+        <v>1535.524858594926</v>
       </c>
       <c r="E8" t="n">
-        <v>791.4709073899301</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>380.4850026003225</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.4317969248226</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1685.964050039457</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1431.27956183357</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1141.86239179661</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>913.8728408985925</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>693.0802617550623</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,25 +5053,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,7 +5114,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
         <v>95.58405025273905</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>451.6888124356582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>304.7988649377478</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>137.6027656526277</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277355</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5718,7 +5718,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5779,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5901,10 +5901,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,55 +6123,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876693</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6186,13 +6186,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.547769317909</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>762.547769317909</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,22 +6475,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.843151638089</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101821</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978464</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>274.8772357154533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>274.8772357154533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>107.6811364303332</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611859</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683287</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>380.8823046593499</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>213.6862053742298</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2105.308438285949</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1816.233211630147</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1561.54872342426</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1272.131553387299</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695815</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871884</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>369.499740389278</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.79556933158176e-12</v>
+        <v>1.359690138258429e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>96.94647126761458</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>43.72409101823416</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>83.27114962944304</v>
       </c>
     </row>
     <row r="20">
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>123.7828069546813</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>40.90318636666117</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>84.24553961896785</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>126.5688841976862</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>21.62386594322854</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.22910392194156</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>147.0213775686977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>126.5688841976861</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>32.89260457059964</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365052</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365054</v>
@@ -26340,22 +26340,22 @@
         <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="L2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>5.841779966431205e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073553</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.723256517081232e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314501</v>
+        <v>90354.06702314492</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314498</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26435,16 +26435,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
+        <v>11167.03225179364</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="I4" t="n">
-        <v>11167.03225179346</v>
-      </c>
       <c r="J4" t="n">
-        <v>11167.03225179343</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26459,7 +26459,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829147.2489274893</v>
+        <v>-829147.2489274899</v>
       </c>
       <c r="C6" t="n">
-        <v>499597.4968001025</v>
+        <v>499597.4968001028</v>
       </c>
       <c r="D6" t="n">
-        <v>499597.4968001022</v>
+        <v>499597.4968001029</v>
       </c>
       <c r="E6" t="n">
-        <v>248025.2065990927</v>
+        <v>248337.8479280139</v>
       </c>
       <c r="F6" t="n">
-        <v>573437.6684064477</v>
+        <v>573750.3097353693</v>
       </c>
       <c r="G6" t="n">
-        <v>573437.6684064479</v>
+        <v>573750.3097353692</v>
       </c>
       <c r="H6" t="n">
-        <v>573437.6684064476</v>
+        <v>573750.3097353694</v>
       </c>
       <c r="I6" t="n">
-        <v>573437.6684064479</v>
+        <v>573750.3097353693</v>
       </c>
       <c r="J6" t="n">
-        <v>355906.4660091706</v>
+        <v>356219.1073380918</v>
       </c>
       <c r="K6" t="n">
-        <v>573437.6684064481</v>
+        <v>573750.3097353693</v>
       </c>
       <c r="L6" t="n">
-        <v>573437.6684064481</v>
+        <v>573750.3097353693</v>
       </c>
       <c r="M6" t="n">
-        <v>488382.6404709363</v>
+        <v>488695.2817998576</v>
       </c>
       <c r="N6" t="n">
-        <v>573437.6684064482</v>
+        <v>573750.3097353693</v>
       </c>
       <c r="O6" t="n">
-        <v>573437.6684064481</v>
+        <v>573750.3097353693</v>
       </c>
       <c r="P6" t="n">
-        <v>573437.6684064481</v>
+        <v>573750.3097353695</v>
       </c>
     </row>
   </sheetData>
@@ -26703,7 +26703,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022922</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973561</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>291.4251788534408</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>291.4251788534401</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,10 +27593,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>214.5414662356967</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>3.455608777220618</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>165.7305790876803</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>67.83092071305816</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>214.5414662356967</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>81.59022088655774</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>394.6963327343162</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>47.29464513706782</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28851,13 +28851,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.508117851338566e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-9.092207747706317e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,46 +31199,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>361.7519118779092</v>
@@ -34474,13 +34474,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306614</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>219.1556674334648</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
